--- a/biology/Zoologie/Galagoides_thomasi/Galagoides_thomasi.xlsx
+++ b/biology/Zoologie/Galagoides_thomasi/Galagoides_thomasi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Galagoides thomasi est une espèce de Primates de la famille des Galagidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Galagoides thomasi est une espèce de Primates de la famille des Galagidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Galagoides thomasi se rencontre[2] au Bénin, au Cameroun, en Côte d'Ivoire, au Gabon, au Ghana, en Guinée équatoriale, au Kenya, au Nigeria, en Ouganda, au Rwanda, en République du Congo, en République démocratique du Congo, en Sierra Leone, au Sénégal, en Tanzanie, au Togo et en Zambie.
-Sa présence incertaine[2] en Angola, au Burundi, en Guinée-Bissau, en Guinée, au Liberia, en République centrafricaine et au Soudan du Sud.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Galagoides thomasi se rencontre au Bénin, au Cameroun, en Côte d'Ivoire, au Gabon, au Ghana, en Guinée équatoriale, au Kenya, au Nigeria, en Ouganda, au Rwanda, en République du Congo, en République démocratique du Congo, en Sierra Leone, au Sénégal, en Tanzanie, au Togo et en Zambie.
+Sa présence incertaine en Angola, au Burundi, en Guinée-Bissau, en Guinée, au Liberia, en République centrafricaine et au Soudan du Sud.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Galagoides thomasi (Elliot, 1907)[3].
-L'espèce a été initialement classée dans le genre Galago sous le protonyme Galago thomasi Elliot, 1907[3].
-Galagoides thomasi a pour synonyme[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Galagoides thomasi (Elliot, 1907).
+L'espèce a été initialement classée dans le genre Galago sous le protonyme Galago thomasi Elliot, 1907.
+Galagoides thomasi a pour synonyme :
 Galago thomasi Elliot, 1907</t>
         </is>
       </c>
